--- a/Result/check3/2025-02-26.xlsx
+++ b/Result/check3/2025-02-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM9"/>
+  <dimension ref="A1:AN11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,165 +466,170 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>箱型力量_5均</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>量能</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>now_price</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>rt_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>盤後量</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>成交量</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>淨值倍率</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>貝他值</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>價能</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>MA5_%</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>均價_%</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>MACD_%</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>MACD</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>MACD-SL</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>LevelArea</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>短交易量o</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>遠交易量o</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>diff_quote</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Trend_change</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>highlight_date</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>highlight_enddate</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Volume_Oscillator</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
@@ -663,165 +668,170 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>10.96</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>39.3</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>7339</t>
+          <t>79</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>10970</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
           <t>1.26</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
           <t>-0.00</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>0.07</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>0.94</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>0.96</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>0.50</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>-95.0</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>6.0</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>-2.48</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>2025-02-12</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2025-03-05</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>562119528.0</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>台塑化</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>油電燃氣業</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
       <c r="AG2" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
           <t>15.62</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>60.87</t>
-        </is>
-      </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>25.73</t>
+          <t>63.65</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>365321</t>
+          <t>26.18</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>柴油30.86%、石化產品19.35%、汽油16.69%、輕油13.06%、航空燃油及煤油7.27%、電力5.15%、基礎油2.33%、燃料油2.21%、蒸汽供應1.97%、液化天然氣(LNG)1.11% (2023年)</t>
+          <t>381991</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
+          <t>柴油27.49%、其他24.93%、石油化學品(乙烯及丙烯等)18.12%、汽油16.28%、航空燃料油7.04%、電力4.50%、蒸汽供應1.49%、勞務0.16% (2024年)</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
           <t>台塑化-油電燃氣業-上市</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>油電燃氣業右下</t>
         </is>
@@ -835,17 +845,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3059</t>
+          <t>6148</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>-3.02</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92649.269</t>
+          <t>1787.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -855,172 +865,177 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-5.42</t>
+          <t>-4.56</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>79.31</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>6.87</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>41.7</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>28995</t>
+          <t>39</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>17589</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>-1.30</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
           <t>0.07</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>114.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>64.0</t>
+          <t>-19.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>-1.37</t>
+          <t>66</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-4.25</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2984836397.0</t>
+          <t>66</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>華晶科</t>
+          <t>89106.0</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>驊宏資</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>41.17</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>61.45</t>
+          <t>25.48</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>14480</t>
+          <t>29.76</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>數位影像相關應用產品100.00% (2023年)</t>
+          <t>1864</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>華晶科-光電業-上市</t>
+          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>驊宏資-資訊服務業-上櫃</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>資訊服務業右上</t>
         </is>
       </c>
     </row>
@@ -1032,17 +1047,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2641</t>
+          <t>3379</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-1.52</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18804.0</t>
+          <t>34689.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1052,172 +1067,177 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-1.99</t>
+          <t>-4.35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>28.07</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>22.6</t>
+          <t>59.35</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>72.9</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
-      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>32559</t>
+          <t>119</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>50059</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-7.05</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>6.64</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>228.0</t>
-        </is>
-      </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>88.0</t>
+          <t>79.0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>2025-01-16</t>
-        </is>
-      </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>1960871.0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>正德</t>
+          <t>2407455.0</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>彬台</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
+          <t>電機機械</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>12.37</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>68.36</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>7542</t>
+          <t>46.15</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>租賃及船舶管理100.00% (2023年)</t>
+          <t>2861</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>正德-航運業-上櫃</t>
+          <t>食品加工相關設備, 原材料與85.69%、食品飲料廠整廠工程及套裝工12.48%、勞務1.82% (2023年)</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>彬台-電機機械-上櫃</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>電機機械右上</t>
         </is>
       </c>
     </row>
@@ -1229,17 +1249,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2637</t>
+          <t>3059</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-2.18</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18064.908</t>
+          <t>92649.269</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1249,172 +1269,177 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-4.24</t>
+          <t>-5.42</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22.20</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>80.1</t>
+          <t>79.31</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>186</t>
-        </is>
-      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>43769</t>
+          <t>161</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>27742</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>9.47</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-1.03</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>114.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>64</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
+          <t>-2.24</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>2025-02-14</t>
-        </is>
-      </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>-3182136623.0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>慧洋-KY</t>
+          <t>2984836397.0</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>華晶科</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>10.71</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>20.29</t>
+          <t>40.83</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>64564</t>
+          <t>62.41</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>租金收入98.05%、其他1.55%、運費0.29%、船舶管理0.12% (2023年)</t>
+          <t>14357</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>慧洋-KY-航運業-上市</t>
+          <t>數位影像相關應用產品100.00% (2023年)</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>華晶科-光電業-上市</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>光電業右上</t>
         </is>
       </c>
     </row>
@@ -1426,192 +1451,197 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2605</t>
+          <t>3032</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3180.882</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>97.7</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>-4.0</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>10036.04</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-2.72</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>9.37</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>27.55</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>8759</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>37.0</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>63.0</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0.9</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>2025-02-14</t>
-        </is>
-      </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>208760321.0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>新興</t>
+          <t>497180588.0</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>偉訓</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
-      </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>11.54</t>
+          <t>14.54</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>20.29</t>
+          <t>19.3</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>16273</t>
+          <t>34.72</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>計航次出租99.93%、計時出租0.07% (2023年)</t>
+          <t>10225</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>新興-航運業-上市</t>
+          <t>電腦周邊產品48.65%、電源供應器等資訊產品42.30%、其他9.05% (2023年)</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>偉訓-電子零組件業-上市</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>電子零組件業右上</t>
         </is>
       </c>
     </row>
@@ -1623,17 +1653,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2328</t>
+          <t>2641</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7.02</t>
+          <t>-1.52</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>35121.314</t>
+          <t>18804.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1643,172 +1673,177 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>-1.99</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>46.52</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>44.15</t>
+          <t>28.07</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>22.6</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>75504</t>
+          <t>82</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>24135</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>6.93</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>91.0</t>
-        </is>
-      </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>228.0</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>7.64</t>
+          <t>88</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>1652260137.0</t>
+          <t>88</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>廣宇</t>
+          <t>1960871.0</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>正德</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>11.6</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>23.78</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>34.56</t>
+          <t>12.32</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>24777</t>
+          <t>29.55</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>電子零組件製造及組裝59.94%、消費性電子產品及電腦週邊產40.06% (2023年)</t>
+          <t>7511</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>廣宇-電子零組件業-上市</t>
+          <t>租賃及船舶管理100.00% (2023年)</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>正德-航運業-上櫃</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>航運業右上</t>
         </is>
       </c>
     </row>
@@ -1820,17 +1855,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1540</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-1.82</t>
+          <t>-2.65</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7873.631</t>
+          <t>113971.129</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1840,172 +1875,177 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-3.38</t>
+          <t>-5.38</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>6.14</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>39.9</t>
+          <t>36.51</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>18.6</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>10582</t>
+          <t>141</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>54459</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>252.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>82.0</t>
+          <t>-42.0</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>-1.66</t>
+          <t>75</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2025-02-14</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2583322311.0</t>
+          <t>75</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>喬福</t>
+          <t>-653379206.0</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>21.33</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>46.12</t>
+          <t>144.62</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>3355</t>
+          <t>62.63</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>切削中心機50.65%、CNC車床41.70%、維修7.65% (2023年)</t>
+          <t>84600</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>喬福-電機機械-上市</t>
+          <t>邏輯產品46.51%、FLASH產品32.06%、動態隨機存取記憶體產品(DRAM18.71%、其他2.72% (2023年)</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>華邦電-半導體業-上市</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>半導體業右下</t>
         </is>
       </c>
     </row>
@@ -2017,190 +2057,599 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2328</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>35121.314</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>46.52</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>44.15</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>45456</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>-1.68</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>1652260137.0</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>廣宇</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>11.6</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>24544</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>電子零組件製造及組裝59.94%、消費性電子產品及電腦週邊產40.06% (2023年)</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>廣宇-電子零組件業-上市</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>電子零組件業右上</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2032</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19944.913</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>21.7</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>8146</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>-2.36</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>823309748.0</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>新鋼</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>鋼鐵工業</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>60.31</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>2767</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>不�袗�板等100.00% (2023年)</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>新鋼-鋼鐵工業-上市</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>鋼鐵工業右上</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>1314</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>-0.83</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>18874.857</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-0.71</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>9.57</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>8.34</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>20437</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>15604</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>0.40</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>0.48</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
         <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>0.07</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>0.73</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>0.24</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>0.14</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>-90.0</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>61.0</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>-1.96</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>-0.48</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>2025-01-16</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>2025-03-05</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>188541128.0</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>中石化</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>塑膠工業</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>1.94</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>25.56</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>56.48</t>
-        </is>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>30960</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>57.91</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>31414</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
         <is>
           <t>丙烯(月青),己內醯胺,尼龍粒100.00% (2023年)</t>
         </is>
       </c>
-      <c r="AL9" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>中石化-塑膠工業-上市</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>塑膠工業右下</t>
         </is>

--- a/Result/check3/2025-02-26.xlsx
+++ b/Result/check3/2025-02-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN11"/>
+  <dimension ref="A1:AN10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,12 +688,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>86</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>10970</t>
+          <t>10836</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -708,7 +708,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>-3.74</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -748,34 +748,34 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>-1.42</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>2025-02-12</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2025-02-12</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="AC2" t="inlineStr">
         <is>
           <t>562119528.0</t>
@@ -798,7 +798,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -808,17 +808,17 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>63.65</t>
+          <t>61.51</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>26.18</t>
+          <t>25.9</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>381991</t>
+          <t>369131</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -890,12 +890,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>17589</t>
+          <t>6829</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>-4.21</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -950,34 +950,34 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>-6.38</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
           <t>66</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>-4.25</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2025-02-03</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>2025-02-27</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
           <t>89106.0</t>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1010,17 +1010,17 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>25.48</t>
+          <t>24.97</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>29.76</t>
+          <t>30.29</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>1864</t>
+          <t>1827</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1092,12 +1092,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>61</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>50059</t>
+          <t>21762</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-7.05</t>
+          <t>-2.65</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1152,34 +1152,34 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>2025-02-24</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
           <t>2407455.0</t>
@@ -1212,17 +1212,17 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>68.36</t>
+          <t>67.73</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>46.15</t>
+          <t>45.72</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>2861</t>
+          <t>2834</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1249,17 +1249,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3059</t>
+          <t>3209</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>7.63</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92649.269</t>
+          <t>29000.743</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1269,22 +1269,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-5.42</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>79.31</t>
+          <t>98.43</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>40.4</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1294,72 +1294,72 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>134</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>27742</t>
+          <t>5279</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-1.03</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>114.0</t>
+          <t>194.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>-2.24</t>
+          <t>-3.99</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1369,32 +1369,32 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>76</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2984836397.0</t>
+          <t>1344189199.0</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>華晶科</t>
+          <t>全科</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1404,42 +1404,42 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>40.83</t>
+          <t>13.17</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>62.41</t>
+          <t>17.23</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>14357</t>
+          <t>9041</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>數位影像相關應用產品100.00% (2023年)</t>
+          <t>無線通訊元件47.47%、有線寬頻元件35.61%、其他16.91% (2023年)</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>華晶科-光電業-上市</t>
+          <t>全科-電子通路業-上市</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
     </row>
@@ -1451,17 +1451,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3032</t>
+          <t>3059</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3180.882</t>
+          <t>92649.269</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1471,22 +1471,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>-5.42</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>8.88</t>
+          <t>79.31</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>97.7</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1496,72 +1496,72 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>225</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>5186</t>
+          <t>17104</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>-3.86</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>114.0</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>64.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>-5.96</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1571,32 +1571,32 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>64</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>497180588.0</t>
+          <t>2984836397.0</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>偉訓</t>
+          <t>華晶科</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1606,42 +1606,42 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>14.54</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>19.3</t>
+          <t>39.39</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>34.72</t>
+          <t>62.59</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>10225</t>
+          <t>13853</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>電腦周邊產品48.65%、電源供應器等資訊產品42.30%、其他9.05% (2023年)</t>
+          <t>數位影像相關應用產品100.00% (2023年)</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>偉訓-電子零組件業-上市</t>
+          <t>華晶科-光電業-上市</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
     </row>
@@ -1698,12 +1698,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>68</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>24135</t>
+          <t>16609</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-2.34</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1748,7 +1748,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1758,34 +1758,34 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
           <t>88</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>6.42</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>2025-01-16</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
       <c r="AC7" t="inlineStr">
         <is>
           <t>1960871.0</t>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -1818,17 +1818,17 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>12.32</t>
+          <t>11.94</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>29.55</t>
+          <t>29.32</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>7511</t>
+          <t>7278</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -1900,12 +1900,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>247</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>54459</t>
+          <t>49687</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>-4.41</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1960,34 +1960,34 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>-2.48</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>2025-01-20</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
           <t>75</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>2025-01-20</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
       <c r="AC8" t="inlineStr">
         <is>
           <t>-653379206.0</t>
@@ -2020,17 +2020,17 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>144.62</t>
+          <t>139.62</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>62.63</t>
+          <t>61.53</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>84600</t>
+          <t>81675</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2102,12 +2102,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>139</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>45456</t>
+          <t>39268</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>-1.68</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -2162,34 +2162,34 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>6.76</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>2025-02-20</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
       <c r="AC9" t="inlineStr">
         <is>
           <t>1652260137.0</t>
@@ -2212,7 +2212,7 @@
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
@@ -2222,17 +2222,17 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>23.56</t>
+          <t>23.36</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>34.72</t>
+          <t>32.05</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>24544</t>
+          <t>24336</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2259,17 +2259,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2032</t>
+          <t>1314</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>19944.913</t>
+          <t>18874.857</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2279,22 +2279,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>-0.71</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>21.7</t>
+          <t>8.34</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -2304,72 +2304,72 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>80</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>8146</t>
+          <t>11046</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>-1.83</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>128.0</t>
+          <t>61.0</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>-2.36</t>
+          <t>-1.83</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -2384,27 +2384,27 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>823309748.0</t>
+          <t>188541128.0</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>新鋼</t>
+          <t>中石化</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>塑膠工業</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2419,237 +2419,35 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>5.66</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>81.54</t>
+          <t>25.59</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>60.31</t>
+          <t>57.54</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>2767</t>
+          <t>30998</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>不�袗�板等100.00% (2023年)</t>
+          <t>丙烯(月青),己內醯胺,尼龍粒100.00% (2023年)</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>新鋼-鋼鐵工業-上市</t>
+          <t>中石化-塑膠工業-上市</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
-        <is>
-          <t>鋼鐵工業右上</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-02-26</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1314</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-0.83</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>18874.857</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>-0.71</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>9.57</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>8.34</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>15604</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>61.0</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>-0.48</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>2025-01-16</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>188541128.0</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>中石化</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>塑膠工業</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>25.94</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>57.91</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>31414</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>丙烯(月青),己內醯胺,尼龍粒100.00% (2023年)</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>中石化-塑膠工業-上市</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
         <is>
           <t>塑膠工業右下</t>
         </is>

--- a/Result/check3/2025-02-26.xlsx
+++ b/Result/check3/2025-02-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN10"/>
+  <dimension ref="A1:AQ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,162 +476,177 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>短增量</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>now_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>rt_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>盤後量</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>成交量</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>淨值倍率</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>貝他值</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>價能</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>MA5_%</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>均價_%</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>MACD_%</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>MACD</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>MACD-SL</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>LevelArea</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>短交易量o</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>遠交易量o</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>diff_quote</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Trend_change</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>highlight_date</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>highlight_enddate</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Volume_Oscillator</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>每股淨值(元)</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>短增level</t>
         </is>
       </c>
     </row>
@@ -643,17 +658,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6505</t>
+          <t>3209</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-2.86</t>
+          <t>7.63</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13478.376</t>
+          <t>29000.743</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -663,177 +678,192 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-2.80</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>35.8</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>40.4</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>5432</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>0.47</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>10.96</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>39.3</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>10836</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>-3.74</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-2.37</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-95.0</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>194.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-1.42</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
+          <t>-6.46</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2025-02-12</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2025-03-08</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>562119528.0</t>
+          <t>76</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>台塑化</t>
+          <t>1344189199.0</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>油電燃氣業</t>
+          <t>全科</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
+          <t>電子通路業</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>15.62</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>61.51</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>25.9</t>
+          <t>12.86</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>369131</t>
+          <t>17.43</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>柴油27.49%、其他24.93%、石油化學品(乙烯及丙烯等)18.12%、汽油16.28%、航空燃料油7.04%、電力4.50%、蒸汽供應1.49%、勞務0.16% (2024年)</t>
+          <t>8832</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>台塑化-油電燃氣業-上市</t>
+          <t>無線通訊元件47.47%、有線寬頻元件35.61%、其他16.91% (2023年)</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>油電燃氣業右下</t>
+          <t>全科-電子通路業-上市</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>電子通路業平</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>21.28</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>短增右下</t>
         </is>
       </c>
     </row>
@@ -845,17 +875,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6148</t>
+          <t>3059</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-3.02</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1787.0</t>
+          <t>92649.269</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -865,177 +895,192 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-4.56</t>
+          <t>-5.42</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>6.87</t>
+          <t>79.31</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>41.7</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>6829</t>
+          <t>102</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>16519</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-4.21</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-3.88</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-19.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>66.0</t>
+          <t>114.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>-6.38</t>
+          <t>64.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-9.46</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>89106.0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>驊宏資</t>
+          <t>2984836397.0</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>華晶科</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>24.97</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>30.29</t>
+          <t>38.13</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>1827</t>
+          <t>61.79</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
+          <t>13409</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>驊宏資-資訊服務業-上櫃</t>
+          <t>數位影像相關應用產品100.00% (2023年)</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>華晶科-光電業-上市</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>光電業右上</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>32.86</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>短增右下</t>
         </is>
       </c>
     </row>
@@ -1047,17 +1092,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3379</t>
+          <t>2641</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>-1.52</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>34689.0</t>
+          <t>18804.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1067,177 +1112,192 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-4.35</t>
+          <t>-1.99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>59.35</t>
+          <t>28.07</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>72.9</t>
+          <t>28.4</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>22.6</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>21762</t>
+          <t>70</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>16465</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-2.65</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>-2.55</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>6.64</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>79.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>228.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>88.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>2025-02-24</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2025-03-08</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2407455.0</t>
+          <t>88</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>彬台</t>
+          <t>1960871.0</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>正德</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
+          <t>航運業</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>67.73</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>45.72</t>
+          <t>11.99</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>2834</t>
+          <t>29.33</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>食品加工相關設備, 原材料與85.69%、食品飲料廠整廠工程及套裝工12.48%、勞務1.82% (2023年)</t>
+          <t>7309</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>彬台-電機機械-上櫃</t>
+          <t>租賃及船舶管理100.00% (2023年)</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>正德-航運業-上櫃</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>航運業右上</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>22.77</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>短增右下</t>
         </is>
       </c>
     </row>
@@ -1249,17 +1309,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3209</t>
+          <t>2328</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7.63</t>
+          <t>7.02</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>29000.743</t>
+          <t>35121.314</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1269,177 +1329,192 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>98.43</t>
+          <t>46.52</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>40.4</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>44.15</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>5279</t>
+          <t>226</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>60894</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>-8.99</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
           <t>0.46</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>194.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>91.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>-3.99</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>2025-03-08</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>1344189199.0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>全科</t>
+          <t>1652260137.0</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>電子通路業</t>
+          <t>廣宇</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>5.4</t>
-        </is>
-      </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>13.17</t>
+          <t>11.6</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>17.23</t>
+          <t>22.69</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>9041</t>
+          <t>29.12</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>無線通訊元件47.47%、有線寬頻元件35.61%、其他16.91% (2023年)</t>
+          <t>23637</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>全科-電子通路業-上市</t>
+          <t>電子零組件製造及組裝59.94%、消費性電子產品及電腦週邊產40.06% (2023年)</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>廣宇-電子零組件業-上市</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>電子零組件業右上</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>短增右下</t>
         </is>
       </c>
     </row>
@@ -1451,17 +1526,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3059</t>
+          <t>1710</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92649.269</t>
+          <t>2787.256</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1471,177 +1546,192 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-5.42</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>79.31</t>
+          <t>12.43</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>15.6</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>225</t>
-        </is>
-      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>17104</t>
+          <t>67</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>15810</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>-3.86</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-2.88</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>114.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>64.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>-5.96</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>2025-03-08</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2984836397.0</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>華晶科</t>
+          <t>86979336.0</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>東聯</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
+          <t>化學工業</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>39.39</t>
+          <t>7.45</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>62.59</t>
+          <t>867.5</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>13853</t>
+          <t>62.38</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>數位影像相關應用產品100.00% (2023年)</t>
+          <t>15367</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>華晶科-光電業-上市</t>
+          <t>乙二醇(EG)63.26%、特用化學品28.83%、氣體7.90% (2023年)</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>東聯-化學工業-上市</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>化學工業右下</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>短增右下</t>
         </is>
       </c>
     </row>
@@ -1653,17 +1743,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2641</t>
+          <t>1314</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-1.52</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>18804.0</t>
+          <t>18874.857</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1673,783 +1763,192 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-1.99</t>
+          <t>-0.71</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>28.07</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>22.6</t>
+          <t>7.8</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>16609</t>
+          <t>58</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>9080</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>-2.34</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-1.73</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>228.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>88.0</t>
+          <t>61.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
+          <t>-2.96</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AA7" t="inlineStr">
         <is>
           <t>2025-01-16</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>2025-03-08</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>1960871.0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>正德</t>
+          <t>188541128.0</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>中石化</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>塑膠工業</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>11.94</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>29.32</t>
+          <t>25.31</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>7278</t>
+          <t>95.05</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>租賃及船舶管理100.00% (2023年)</t>
+          <t>30657</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>正德-航運業-上櫃</t>
+          <t>丙烯(月青),己內醯胺,尼龍粒100.00% (2023年)</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>航運業右上</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-02-26</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2344</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>-2.65</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>113971.129</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-5.38</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>36.51</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>18.6</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>247</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>49687</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>-4.41</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>-42.0</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>75.0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>-2.48</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>2025-01-20</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>-653379206.0</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>華邦電</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>139.62</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>61.53</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>81675</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>邏輯產品46.51%、FLASH產品32.06%、動態隨機存取記憶體產品(DRAM18.71%、其他2.72% (2023年)</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>華邦電-半導體業-上市</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>半導體業右下</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025-02-26</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2328</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>7.02</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>35121.314</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>46.52</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>44.15</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>139</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>39268</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>-1.58</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>91.0</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>22.0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>2025-02-20</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>1652260137.0</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>廣宇</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>11.6</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>23.36</t>
-        </is>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>32.05</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>24336</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>電子零組件製造及組裝59.94%、消費性電子產品及電腦週邊產40.06% (2023年)</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>廣宇-電子零組件業-上市</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>電子零組件業右上</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-02-26</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1314</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-0.83</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>18874.857</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-0.71</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>9.57</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>8.34</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>11046</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>-1.83</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>61.0</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>-1.83</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>2025-01-16</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>188541128.0</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>中石化</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>塑膠工業</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>25.59</t>
-        </is>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>57.54</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>30998</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>丙烯(月青),己內醯胺,尼龍粒100.00% (2023年)</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
           <t>中石化-塑膠工業-上市</t>
         </is>
       </c>
-      <c r="AN10" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>塑膠工業右下</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>短增右下</t>
         </is>
       </c>
     </row>

--- a/Result/check3/2025-02-26.xlsx
+++ b/Result/check3/2025-02-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS1"/>
+  <dimension ref="A1:AU1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,40 +621,50 @@
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
+          <t>營業毛利率</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>營業利益率</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>短增level</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>flag</t>
         </is>
